--- a/docs/assets/disciplinas/LOQ4085.xlsx
+++ b/docs/assets/disciplinas/LOQ4085.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EB-5,EQD-5,EQN-6</t>
+    <t>EB-6,EQD-5,EQN-6</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOQ4085.xlsx
+++ b/docs/assets/disciplinas/LOQ4085.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Aplicar os fundamentos teóricos das operações unitárias envolvendo sistemas fluidos e particulados, baseados nos princípios dos fenômenos de transporte I.</t>
+    <t>8151869 - Livia Chaguri e Carvalho</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,24 +82,21 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8151869 - Livia Chaguri e Carvalho</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Semestral</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
     <t>1)Transporte de fluidos (Newtonianos e não Newtonianos)2)Agitação e mistura3)Caracterização e dinâmica de partículas4)Separação de partículas por ação gravitacional e centrífuga5)Interação sólido – fluido6)Filtração7)Sedimentação</t>
   </si>
   <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>1)Transporte de fluidos: Tipos de bombas e compressores. Medidores de vazão. Curvas características. Cavitação e altura de sucção disponível (NPSH). Dimensionamento do sistema de bombeamento.2)Agitação e mistura: Tipos de equipamentos e impelidores. Mistura de líquidos. Cálculos de potência de agitadores.3)Caracterização e dinâmica de partículas: Características físicas de partícula isolada. Tamanho de partículas. Peneiramento. Análise granulométrica. Velocidade terminal.4)Separação de partículas por ação gravitacional e centrífuga: Elutriação. Câmara de poeira. Ciclones e centrífugas.5)Interação sólido – fluido: Escoamento em meio poroso. Fluidização.6)Filtração: Tipos de equipamentos. Filtração a pressão e vazão constante. Tortas compressíveis e incompressíveis.7)Sedimentação: Tipos de equipamentos. Cálculo da área e altura de sedimentadores.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,10 +109,13 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aplicação de 2 provas (P1 e P2).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média do período (MP) será calculada por: MP = (P1+P2)/2. 
@@ -124,16 +124,10 @@
 Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham freqüência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1)COULSON, J. M.; RICHARDSON; J.F. Chemical Engineering. v.2: Particle Technology e Separation Processes. 5ed. Amsterdan: Butterworth Heinemann, 1229p. 2005;2)COULSON &amp; Richardson's Chemical Engineering: chemical engineering design by R.K. Sinnott. 6ed. Amsterdam: Elsevier Butterworth Heinemann, 895p. 2004;3)COUPER, J. R.; PENNEY, W. R.; FAIR, J. R.; W.; Stanley. M. Chemical Process Equipment: Selection and Design. 2ed. Amsterdam: Elsevier, 814p. 2005;4)MORAES JUNIOR, D. Transporte de líquidos e gases. v.1. São Carlos: Ufscar, 1988;5)FOUST, A. S.; WENZEL, L. A.; CLUMP, C. W.; MAUS, L.; ANDERSEN, L. B. 2ed. Princípios das operações unitárias. Rio de Janeiro: Guanabara Dois/LTC, 670p. 2008;6)GEANKOPLIS, C. J. Transport Processes and Separation Process Principles. 4ed. New York: Prentice Hall, 1026p. 2010;7)MCCABE, W. L.; SMITH, J. C.; HARRIOT, P. Unit operations of chemical engineering. 7ed. Boston: McGraw-Hill, 1140 p. 2005;8)PERRY's chemical engineers handbook. Editor in Chief Don W. Green; Late Editor Robert H. Perry New York: McGraw-Hill, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,61 +621,64 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -706,7 +703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -717,28 +714,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4085.xlsx
+++ b/docs/assets/disciplinas/LOQ4085.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,33 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Aplicar os fundamentos teóricos das operações unitárias envolvendo sistemas fluidos e particulados, baseados nos princípios dos fenômenos de transporte I.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Aims - To apply theoretical foundations of the unit operations involving fluids and particulate systems based on the principles of transport phenomena I.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8151869 - Livia Chaguri e Carvalho</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Aims - To apply theoretical foundations of the unit operations involving fluids and particulate systems based on the principles of transport phenomena I.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1)Transporte de fluidos (Newtonianos e não Newtonianos)2)Agitação e mistura3)Caracterização e dinâmica de partículas4)Separação de partículas por ação gravitacional e centrífuga5)Interação sólido – fluido6)Filtração7)Sedimentação</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>1)Transporte de fluidos (Newtonianos e não Newtonianos)2)Agitação e mistura3)Caracterização e dinâmica de partículas4)Separação de partículas por ação gravitacional e centrífuga5)Interação sólido – fluido6)Filtração7)Sedimentação</t>
-  </si>
-  <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1)Transporte de fluidos: Tipos de bombas e compressores. Medidores de vazão. Curvas características. Cavitação e altura de sucção disponível (NPSH). Dimensionamento do sistema de bombeamento.2)Agitação e mistura: Tipos de equipamentos e impelidores. Mistura de líquidos. Cálculos de potência de agitadores.3)Caracterização e dinâmica de partículas: Características físicas de partícula isolada. Tamanho de partículas. Peneiramento. Análise granulométrica. Velocidade terminal.4)Separação de partículas por ação gravitacional e centrífuga: Elutriação. Câmara de poeira. Ciclones e centrífugas.5)Interação sólido – fluido: Escoamento em meio poroso. Fluidização.6)Filtração: Tipos de equipamentos. Filtração a pressão e vazão constante. Tortas compressíveis e incompressíveis.7)Sedimentação: Tipos de equipamentos. Cálculo da área e altura de sedimentadores.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,13 +112,10 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aplicação de 2 provas (P1 e P2).</t>
+  </si>
+  <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>Aplicação de 2 provas (P1 e P2).</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média do período (MP) será calculada por: MP = (P1+P2)/2. 
@@ -124,10 +124,16 @@
 Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham freqüência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação</t>
+    <t>1)COULSON, J. M.; RICHARDSON; J.F. Chemical Engineering. v.2: Particle Technology e Separation Processes. 5ed. Amsterdan: Butterworth Heinemann, 1229p. 2005;2)COULSON &amp; Richardson's Chemical Engineering: chemical engineering design by R.K. Sinnott. 6ed. Amsterdam: Elsevier Butterworth Heinemann, 895p. 2004;3)COUPER, J. R.; PENNEY, W. R.; FAIR, J. R.; W.; Stanley. M. Chemical Process Equipment: Selection and Design. 2ed. Amsterdam: Elsevier, 814p. 2005;4)MORAES JUNIOR, D. Transporte de líquidos e gases. v.1. São Carlos: Ufscar, 1988;5)FOUST, A. S.; WENZEL, L. A.; CLUMP, C. W.; MAUS, L.; ANDERSEN, L. B. 2ed. Princípios das operações unitárias. Rio de Janeiro: Guanabara Dois/LTC, 670p. 2008;6)GEANKOPLIS, C. J. Transport Processes and Separation Process Principles. 4ed. New York: Prentice Hall, 1026p. 2010;7)MCCABE, W. L.; SMITH, J. C.; HARRIOT, P. Unit operations of chemical engineering. 7ed. Boston: McGraw-Hill, 1140 p. 2005;8)PERRY's chemical engineers handbook. Editor in Chief Don W. Green; Late Editor Robert H. Perry New York: McGraw-Hill, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -621,64 +627,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -703,7 +706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -714,17 +717,28 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
